--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\declare_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E6C526-4DBF-4D85-BE1B-726FA950A534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD334F54-5F17-4E59-9E72-38B6CB70B1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3100" yWindow="3100" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="报关单" sheetId="1" r:id="rId1"/>
@@ -1221,35 +1221,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1261,18 +1256,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1285,6 +1269,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1292,10 +1296,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -1779,19 +1779,19 @@
     <row r="1" spans="1:16" ht="27" customHeight="1">
       <c r="A1" s="21"/>
       <c r="B1" s="22"/>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="23"/>
       <c r="O1" s="27"/>
       <c r="P1" s="28"/>
@@ -1807,132 +1807,132 @@
       <c r="P2" s="30"/>
     </row>
     <row r="3" spans="1:16" s="18" customFormat="1" ht="42" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="61" t="s">
+      <c r="F3" s="57"/>
+      <c r="G3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="64" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="52" t="s">
+      <c r="L3" s="57"/>
+      <c r="M3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53"/>
       <c r="P3" s="31"/>
     </row>
     <row r="4" spans="1:16" s="18" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="48" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="48" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="60" t="s">
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
       <c r="O4" s="47"/>
       <c r="P4" s="31"/>
     </row>
     <row r="5" spans="1:16" s="18" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="44" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="48" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="60" t="s">
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
       <c r="O5" s="47"/>
       <c r="P5" s="31"/>
     </row>
     <row r="6" spans="1:16" s="18" customFormat="1" ht="31" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="48" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="48" t="s">
+      <c r="E6" s="40"/>
+      <c r="F6" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="48" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="46" t="s">
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="36"/>
+      <c r="N6" s="39"/>
       <c r="O6" s="47"/>
       <c r="P6" s="31"/>
     </row>
     <row r="7" spans="1:16" s="18" customFormat="1" ht="32.5" customHeight="1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="44" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="45"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
       <c r="H7" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="J7" s="45"/>
+      <c r="J7" s="37"/>
       <c r="K7" s="25" t="s">
         <v>12</v>
       </c>
@@ -1942,25 +1942,25 @@
       <c r="M7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="41" t="s">
+      <c r="N7" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="42"/>
+      <c r="O7" s="61"/>
       <c r="P7" s="31"/>
     </row>
     <row r="8" spans="1:16" s="18" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="26"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="40"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
       <c r="K8" s="26"/>
       <c r="L8" s="32"/>
       <c r="M8" s="33"/>
@@ -1969,47 +1969,63 @@
       <c r="P8" s="31"/>
     </row>
     <row r="9" spans="1:16" s="18" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="59"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="45"/>
       <c r="P9" s="31"/>
     </row>
     <row r="10" spans="1:16" s="18" customFormat="1" ht="60" customHeight="1">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="45"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="37"/>
       <c r="P10" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="A10:O10"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="A7:D7"/>
@@ -2021,23 +2037,7 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="L4:O4"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A5:D5"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75138888888888899" right="0.75138888888888899" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2072,25 +2072,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="67" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="69" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -2107,15 +2107,15 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16" customHeight="1">
-      <c r="A2" s="69"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
       <c r="H2" s="6" t="s">
         <v>30</v>
       </c>
